--- a/biology/Botanique/Rallye_des_Vignobles/Rallye_des_Vignobles.xlsx
+++ b/biology/Botanique/Rallye_des_Vignobles/Rallye_des_Vignobles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rallye des Vignobles est une épreuve sportive et touristique de renom en Bourgogne-Franche-Comté et en Centre-Val de Loire, se pratiquant à pied ou à vélo, et attirant des randonneurs de tout l'Hexagone. Ceux-ci découvrent les panoramas et les vignobles des communes de Cosne-Cours-sur-Loire et Pouilly-sur-Loire dans la Nièvre, et de Sancerre dans le Cher.
 </t>
@@ -511,11 +523,13 @@
           <t>Randonnée rime avec bonne santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a lieu le 2e week-end d'octobre[1] ; la ville d'accueil est Cosne-Cours-sur-Loire. Uniquement cyclotouriste à ses débuts, il propose de nos jours d'agréables randonnées à travers les vignobles et en bordure de Loire, pour la marche, le vélo, le VTT et le gravel. Les VAE sont autorisés.
-Le nombre de participants est passé de 172 en 1978 à 3 736 en 2007 à l'occasion de la 30e édition[2]. Il figure parmi les plus importants rallyes touristiques de France par le nombre de participants.
-Plusieurs parcours sont proposés dans chaque discipline ; pour le vélo, le plus long développe une centaine de kilomètres, avec un dénivelé pouvant atteindre 1 400 mètres, et comprend deux pauses. La beauté des paysages allié à l'esprit de convivialité contribuent au succès de cette sortie qui n'est pas une compétition. Tous les circuits à vélo empruntent les fameuses collines du Sancerrois où l'expression « mettre tout à gauche » est de mise[3]. À Ménétréol-sous-Sancerre, la route de l'Orme au Loup (colline boisée dont le sommet offre un beau panorama) est célèbre[4]. Non loin, une cave propose, à l'occasion d'une pause, une dégustation de produits régionaux (vin blanc, rosé ou rouge ; crottin de Chavignol, croquets de Sancerre, etc.).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a lieu le 2e week-end d'octobre ; la ville d'accueil est Cosne-Cours-sur-Loire. Uniquement cyclotouriste à ses débuts, il propose de nos jours d'agréables randonnées à travers les vignobles et en bordure de Loire, pour la marche, le vélo, le VTT et le gravel. Les VAE sont autorisés.
+Le nombre de participants est passé de 172 en 1978 à 3 736 en 2007 à l'occasion de la 30e édition. Il figure parmi les plus importants rallyes touristiques de France par le nombre de participants.
+Plusieurs parcours sont proposés dans chaque discipline ; pour le vélo, le plus long développe une centaine de kilomètres, avec un dénivelé pouvant atteindre 1 400 mètres, et comprend deux pauses. La beauté des paysages allié à l'esprit de convivialité contribuent au succès de cette sortie qui n'est pas une compétition. Tous les circuits à vélo empruntent les fameuses collines du Sancerrois où l'expression « mettre tout à gauche » est de mise. À Ménétréol-sous-Sancerre, la route de l'Orme au Loup (colline boisée dont le sommet offre un beau panorama) est célèbre. Non loin, une cave propose, à l'occasion d'une pause, une dégustation de produits régionaux (vin blanc, rosé ou rouge ; crottin de Chavignol, croquets de Sancerre, etc.).
 De nombreuses villes à proximité, telles Boulleret, Donzy, Menou, Saint-Père et Sury-ès-Bois, organisent des randonnées permettant de découvrir les charmes de cette campagne vallonnée.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici quelques points d'intérêt :
 musée de la Loire à Cosne-Cours-sur-Loire ;
